--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Wolfram.Spring.030920.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Wolfram.Spring.030920.xlsx_with_dialog_acts.xlsx
@@ -1311,12 +1311,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1395,12 +1395,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1647,12 +1647,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1983,12 +1983,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2697,12 +2697,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3243,12 +3243,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3369,12 +3369,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4083,12 +4083,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4167,12 +4167,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4503,12 +4503,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5469,12 +5469,12 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5931,12 +5931,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6267,12 +6267,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6477,12 +6477,12 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7233,12 +7233,12 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7573,12 +7573,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7703,12 +7703,12 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7913,12 +7913,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8123,12 +8123,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9089,12 +9089,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9257,12 +9257,12 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9513,12 +9513,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9975,12 +9975,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11025,12 +11025,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11109,12 +11109,12 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11361,12 +11361,12 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11869,12 +11869,12 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12041,12 +12041,12 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12381,12 +12381,12 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12717,12 +12717,12 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12885,12 +12885,12 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12927,12 +12927,12 @@
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13305,12 +13305,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13901,12 +13901,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14657,12 +14657,12 @@
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15165,12 +15165,12 @@
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15291,12 +15291,12 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16181,12 +16181,12 @@
       <c r="H374" t="inlineStr"/>
       <c r="I374" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16731,12 +16731,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16899,12 +16899,12 @@
       <c r="H391" t="inlineStr"/>
       <c r="I391" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17109,12 +17109,12 @@
       <c r="H396" t="inlineStr"/>
       <c r="I396" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17697,12 +17697,12 @@
       <c r="H410" t="inlineStr"/>
       <c r="I410" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18969,12 +18969,12 @@
       <c r="H440" t="inlineStr"/>
       <c r="I440" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19011,12 +19011,12 @@
       <c r="H441" t="inlineStr"/>
       <c r="I441" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19183,12 +19183,12 @@
       <c r="H445" t="inlineStr"/>
       <c r="I445" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19225,12 +19225,12 @@
       <c r="H446" t="inlineStr"/>
       <c r="I446" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19309,12 +19309,12 @@
       <c r="H448" t="inlineStr"/>
       <c r="I448" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19519,12 +19519,12 @@
       <c r="H453" t="inlineStr"/>
       <c r="I453" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20997,12 +20997,12 @@
       <c r="H488" t="inlineStr"/>
       <c r="I488" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21081,12 +21081,12 @@
       <c r="H490" t="inlineStr"/>
       <c r="I490" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21249,12 +21249,12 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22089,12 +22089,12 @@
       <c r="H514" t="inlineStr"/>
       <c r="I514" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -22937,12 +22937,12 @@
       <c r="H534" t="inlineStr"/>
       <c r="I534" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23525,12 +23525,12 @@
       <c r="H548" t="inlineStr"/>
       <c r="I548" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23777,12 +23777,12 @@
       <c r="H554" t="inlineStr"/>
       <c r="I554" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24281,12 +24281,12 @@
       <c r="H566" t="inlineStr"/>
       <c r="I566" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24659,12 +24659,12 @@
       <c r="H575" t="inlineStr"/>
       <c r="I575" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25583,12 +25583,12 @@
       <c r="H597" t="inlineStr"/>
       <c r="I597" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25667,12 +25667,12 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25751,12 +25751,12 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26045,12 +26045,12 @@
       <c r="H608" t="inlineStr"/>
       <c r="I608" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J608" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26213,12 +26213,12 @@
       <c r="H612" t="inlineStr"/>
       <c r="I612" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26255,12 +26255,12 @@
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26339,12 +26339,12 @@
       <c r="H615" t="inlineStr"/>
       <c r="I615" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26507,12 +26507,12 @@
       <c r="H619" t="inlineStr"/>
       <c r="I619" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27347,12 +27347,12 @@
       <c r="H639" t="inlineStr"/>
       <c r="I639" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J639" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -27431,12 +27431,12 @@
       <c r="H641" t="inlineStr"/>
       <c r="I641" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27767,12 +27767,12 @@
       <c r="H649" t="inlineStr"/>
       <c r="I649" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J649" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28061,12 +28061,12 @@
       <c r="H656" t="inlineStr"/>
       <c r="I656" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28523,12 +28523,12 @@
       <c r="H667" t="inlineStr"/>
       <c r="I667" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J667" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
